--- a/Order Acceptance From Vendor Profile.xlsx
+++ b/Order Acceptance From Vendor Profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TestBot\TestCases\CXE\Staff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEF3C59-8625-43C1-A4DC-176FC8521BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA7D03-17C8-4946-843C-591FFACCAE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>Keyword</t>
   </si>
@@ -496,7 +496,25 @@
     <t>Closedocs</t>
   </si>
   <si>
-    <t>C:\Users\nkumar1\Desktop\CX\500-KB.pdf</t>
+    <t>G:\TestBot\upload.vbs</t>
+  </si>
+  <si>
+    <t># Verify Order status</t>
+  </si>
+  <si>
+    <t>OrderStatusCX</t>
+  </si>
+  <si>
+    <t>Order Status :</t>
+  </si>
+  <si>
+    <t>verifyvalue</t>
+  </si>
+  <si>
+    <t>Appt Confirmed</t>
+  </si>
+  <si>
+    <t>$ Successfully Status Updated to   *Appointment Confirmed*  ELSE Failed to update the status to *Confirm Appointment*</t>
   </si>
 </sst>
 </file>
@@ -703,7 +721,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -760,6 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -1177,10 +1196,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0333D7-F7EE-406A-AE98-7A261F09E5DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,6 +2314,57 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" s="8">
+        <v>5</v>
+      </c>
+      <c r="C131" s="23"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="H132" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C134" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="C1:C6" xr:uid="{70B66470-1412-4D1B-807E-651C81B351CD}"/>
